--- a/INTLINE/data/542/542_series.xlsx
+++ b/INTLINE/data/542/542_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\542\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\542\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B6FE6-6CFF-4F08-9B3F-E99CC4F6493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B5ED9-C175-44BC-AD2D-CE73AC90857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1131">
   <si>
     <t>Short Label</t>
   </si>
@@ -3548,18 +3548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross domestic product (current prices, won)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross national income (current prices, won)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross national disposable income (current prices)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Agriculture, forestry and fishing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3585,46 +3573,6 @@
   </si>
   <si>
     <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Transportation and storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Net factor income from the rest of the world</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Gross fixed capital formation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Changes in inventories and acquisitions less disposals of valuables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Private</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Government</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Exports of goods and services</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//(less) Imports of goods and services</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Statistical discrepancy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Compensation of employees</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Consumption of fixed capital</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4860,6 +4808,66 @@
   <si>
     <t>Recreationandculture</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Mining and quarrying</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Manufacturing</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Electricity, gas and water supply</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Construction</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Wholesale and retail trade, accommodation and food services</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Transportation and storage</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross domestic product (current prices, won)</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Compensation of employees</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Consumption of fixed capital</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Gross fixed capital formation</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Private</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Government</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Changes in inventories and acquisitions less disposals of valuables</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Exports of goods and services</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//(less) Imports of goods and services</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Statistical discrepancy</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Net factor income from the rest of the world</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross national income (current prices, won)</t>
+  </si>
+  <si>
+    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross national disposable income (current prices)</t>
   </si>
 </sst>
 </file>
@@ -5250,11 +5258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5373,7 +5381,7 @@
         <v>751</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>776</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5408,7 +5416,7 @@
         <v>752</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>777</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5443,7 +5451,7 @@
         <v>753</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>778</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5478,7 +5486,7 @@
         <v>754</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>779</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5513,7 +5521,7 @@
         <v>755</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>780</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5548,7 +5556,7 @@
         <v>756</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>781</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5583,7 +5591,7 @@
         <v>757</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>782</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5618,7 +5626,7 @@
         <v>758</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>773</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5653,7 +5661,7 @@
         <v>761</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>791</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5688,7 +5696,7 @@
         <v>762</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>792</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5723,7 +5731,7 @@
         <v>767</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>784</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5758,7 +5766,7 @@
         <v>765</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>786</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5793,7 +5801,7 @@
         <v>766</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>787</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5828,7 +5836,7 @@
         <v>768</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>785</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5863,7 +5871,7 @@
         <v>769</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>788</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5898,7 +5906,7 @@
         <v>770</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>789</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5933,7 +5941,7 @@
         <v>771</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>790</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5968,7 +5976,7 @@
         <v>764</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>783</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6003,7 +6011,7 @@
         <v>759</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>774</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6038,7 +6046,7 @@
         <v>760</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>775</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -6113,10 +6121,10 @@
         <v>763</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6153,10 +6161,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="B3" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -6174,22 +6182,22 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6197,7 +6205,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6215,22 +6223,22 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6238,7 +6246,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -6259,27 +6267,27 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="B6" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6300,19 +6308,19 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6341,19 +6349,19 @@
         <v>106</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6382,19 +6390,19 @@
         <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6402,7 +6410,7 @@
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -6423,13 +6431,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6458,13 +6466,13 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6493,13 +6501,13 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6528,13 +6536,13 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6563,13 +6571,13 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6598,13 +6606,13 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6633,13 +6641,13 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6668,13 +6676,13 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -6703,13 +6711,13 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -6738,13 +6746,13 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -6773,13 +6781,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -6808,13 +6816,13 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6843,13 +6851,13 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6878,13 +6886,13 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -6913,13 +6921,13 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6948,13 +6956,13 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6983,13 +6991,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7018,13 +7026,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -7053,13 +7061,13 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -7088,13 +7096,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -7123,13 +7131,13 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7158,13 +7166,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -7193,13 +7201,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -7228,13 +7236,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -7263,13 +7271,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -7298,13 +7306,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -7333,13 +7341,13 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -7368,13 +7376,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -7403,13 +7411,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -7438,13 +7446,13 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -7473,13 +7481,13 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -7508,13 +7516,13 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -7543,13 +7551,13 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -7578,13 +7586,13 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -7613,13 +7621,13 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -7648,13 +7656,13 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -7683,13 +7691,13 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -7718,13 +7726,13 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -7753,13 +7761,13 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -7788,13 +7796,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -7823,13 +7831,13 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -7858,13 +7866,13 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -7893,13 +7901,13 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -7928,13 +7936,13 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -7963,13 +7971,13 @@
         <v>17</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -7998,13 +8006,13 @@
         <v>17</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -8033,13 +8041,13 @@
         <v>17</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -8068,13 +8076,13 @@
         <v>17</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -8103,13 +8111,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -8138,13 +8146,13 @@
         <v>17</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -8173,13 +8181,13 @@
         <v>17</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -8208,13 +8216,13 @@
         <v>17</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -8243,13 +8251,13 @@
         <v>17</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -8278,13 +8286,13 @@
         <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -8313,13 +8321,13 @@
         <v>17</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -8348,13 +8356,13 @@
         <v>17</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8383,13 +8391,13 @@
         <v>17</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8418,13 +8426,13 @@
         <v>17</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8453,13 +8461,13 @@
         <v>17</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8488,13 +8496,13 @@
         <v>17</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8523,13 +8531,13 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8558,13 +8566,13 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8593,18 +8601,18 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
@@ -8628,13 +8636,13 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8663,13 +8671,13 @@
         <v>17</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -8698,13 +8706,13 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -8733,13 +8741,13 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -8768,13 +8776,13 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -8803,13 +8811,13 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -8838,13 +8846,13 @@
         <v>17</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -8873,13 +8881,13 @@
         <v>17</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -8908,13 +8916,13 @@
         <v>17</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -8943,13 +8951,13 @@
         <v>17</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -8978,13 +8986,13 @@
         <v>17</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9013,13 +9021,13 @@
         <v>17</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9048,13 +9056,13 @@
         <v>17</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9083,13 +9091,13 @@
         <v>17</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9118,13 +9126,13 @@
         <v>17</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9153,18 +9161,18 @@
         <v>17</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="B88" t="s">
         <v>355</v>
@@ -9188,13 +9196,13 @@
         <v>17</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -9223,13 +9231,13 @@
         <v>17</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -9258,13 +9266,13 @@
         <v>17</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -9293,13 +9301,13 @@
         <v>17</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9328,13 +9336,13 @@
         <v>17</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9363,13 +9371,13 @@
         <v>17</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K93" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="L93" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9398,13 +9406,13 @@
         <v>17</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9433,13 +9441,13 @@
         <v>17</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9468,13 +9476,13 @@
         <v>17</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9503,13 +9511,13 @@
         <v>17</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9538,13 +9546,13 @@
         <v>17</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -9573,13 +9581,13 @@
         <v>17</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -9608,13 +9616,13 @@
         <v>17</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -9643,13 +9651,13 @@
         <v>17</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -9678,13 +9686,13 @@
         <v>17</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -9713,18 +9721,18 @@
         <v>17</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="B104" t="s">
         <v>402</v>
@@ -9748,13 +9756,13 @@
         <v>17</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -9783,13 +9791,13 @@
         <v>17</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -9818,13 +9826,13 @@
         <v>17</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -9853,13 +9861,13 @@
         <v>17</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -9888,13 +9896,13 @@
         <v>17</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -9923,13 +9931,13 @@
         <v>17</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -9958,13 +9966,13 @@
         <v>17</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -9993,13 +10001,13 @@
         <v>17</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -10028,13 +10036,13 @@
         <v>17</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -10063,13 +10071,13 @@
         <v>17</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -10098,13 +10106,13 @@
         <v>17</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -10133,13 +10141,13 @@
         <v>17</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -10168,13 +10176,13 @@
         <v>17</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -10203,18 +10211,18 @@
         <v>17</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="B118" t="s">
         <v>355</v>
@@ -10238,13 +10246,13 @@
         <v>17</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -10273,13 +10281,13 @@
         <v>17</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -10308,13 +10316,13 @@
         <v>17</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -10343,13 +10351,13 @@
         <v>17</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -10378,13 +10386,13 @@
         <v>17</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -10413,13 +10421,13 @@
         <v>17</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -10448,13 +10456,13 @@
         <v>17</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -10483,13 +10491,13 @@
         <v>17</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -10518,13 +10526,13 @@
         <v>17</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -10553,13 +10561,13 @@
         <v>17</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -10588,13 +10596,13 @@
         <v>17</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -10623,13 +10631,13 @@
         <v>17</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -10658,13 +10666,13 @@
         <v>17</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -10693,13 +10701,13 @@
         <v>17</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -10728,13 +10736,13 @@
         <v>17</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -10763,13 +10771,13 @@
         <v>17</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -10798,13 +10806,13 @@
         <v>17</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -10833,13 +10841,13 @@
         <v>17</v>
       </c>
       <c r="J135" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="L135" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -10868,13 +10876,13 @@
         <v>17</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -10903,13 +10911,13 @@
         <v>17</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -10938,13 +10946,13 @@
         <v>17</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -10957,8 +10965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
@@ -11053,7 +11061,7 @@
         <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C3" t="s">
         <v>492</v>
@@ -11077,13 +11085,13 @@
         <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11115,13 +11123,13 @@
         <v>106</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11129,7 +11137,7 @@
         <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C5" t="s">
         <v>500</v>
@@ -11153,13 +11161,13 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11167,7 +11175,7 @@
         <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C6" t="s">
         <v>492</v>
@@ -11191,13 +11199,13 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11205,7 +11213,7 @@
         <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="C7" t="s">
         <v>505</v>
@@ -11223,13 +11231,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="L7"/>
     </row>
@@ -11259,10 +11267,10 @@
         <v>508</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>1103</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>1116</v>
       </c>
       <c r="L8"/>
     </row>
@@ -11292,10 +11300,10 @@
         <v>508</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="L9"/>
     </row>
@@ -11325,10 +11333,10 @@
         <v>508</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="L10"/>
     </row>
@@ -11358,10 +11366,10 @@
         <v>508</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="L11"/>
     </row>
@@ -11391,10 +11399,10 @@
         <v>508</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="L12"/>
     </row>
@@ -11424,10 +11432,10 @@
         <v>508</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="L13"/>
     </row>
@@ -11457,10 +11465,10 @@
         <v>508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="L14"/>
     </row>
@@ -11490,10 +11498,10 @@
         <v>508</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="L15"/>
     </row>
@@ -11523,10 +11531,10 @@
         <v>508</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="L16"/>
     </row>
@@ -11556,10 +11564,10 @@
         <v>508</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="L17"/>
     </row>
@@ -11589,10 +11597,10 @@
         <v>508</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="L18"/>
     </row>
@@ -11622,10 +11630,10 @@
         <v>508</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="L19"/>
     </row>
@@ -11655,10 +11663,10 @@
         <v>508</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="L20"/>
     </row>
@@ -11688,10 +11696,10 @@
         <v>508</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="L21"/>
     </row>
@@ -11721,10 +11729,10 @@
         <v>508</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="L22"/>
     </row>
@@ -11754,10 +11762,10 @@
         <v>508</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="L23"/>
     </row>
@@ -11787,10 +11795,10 @@
         <v>508</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="L24"/>
     </row>
@@ -11823,13 +11831,13 @@
         <v>106</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -11858,7 +11866,7 @@
         <v>570</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -11868,7 +11876,7 @@
         <v>573</v>
       </c>
       <c r="B27" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C27" t="s">
         <v>571</v>
@@ -11889,13 +11897,13 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -11924,13 +11932,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -11959,13 +11967,13 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -11994,18 +12002,18 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="B31" t="s">
         <v>584</v>
@@ -12029,18 +12037,18 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="B32" t="s">
         <v>587</v>
@@ -12064,13 +12072,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -12099,13 +12107,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -12134,13 +12142,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -12169,13 +12177,13 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12207,13 +12215,13 @@
         <v>106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12245,13 +12253,13 @@
         <v>106</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12283,13 +12291,13 @@
         <v>106</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -12321,13 +12329,13 @@
         <v>106</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -12359,13 +12367,13 @@
         <v>106</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -12397,13 +12405,13 @@
         <v>106</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12435,13 +12443,13 @@
         <v>106</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12473,13 +12481,13 @@
         <v>106</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12511,13 +12519,13 @@
         <v>106</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12549,13 +12557,13 @@
         <v>106</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -12587,13 +12595,13 @@
         <v>106</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -12625,13 +12633,13 @@
         <v>106</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12663,13 +12671,13 @@
         <v>106</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -12701,13 +12709,13 @@
         <v>106</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -12739,13 +12747,13 @@
         <v>106</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12777,13 +12785,13 @@
         <v>106</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -12815,13 +12823,13 @@
         <v>106</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -12853,18 +12861,18 @@
         <v>106</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="B54" t="s">
         <v>674</v>
@@ -12891,13 +12899,13 @@
         <v>106</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -12929,13 +12937,13 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -12967,13 +12975,13 @@
         <v>106</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13005,13 +13013,13 @@
         <v>106</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13043,13 +13051,13 @@
         <v>106</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13081,13 +13089,13 @@
         <v>106</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13119,18 +13127,18 @@
         <v>106</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="B61" t="s">
         <v>695</v>
@@ -13157,13 +13165,13 @@
         <v>106</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -13195,13 +13203,13 @@
         <v>106</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -13233,13 +13241,13 @@
         <v>106</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -13271,13 +13279,13 @@
         <v>106</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13309,13 +13317,13 @@
         <v>106</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -13347,13 +13355,13 @@
         <v>106</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -13385,18 +13393,18 @@
         <v>106</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="B68" t="s">
         <v>709</v>
@@ -13423,13 +13431,13 @@
         <v>106</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -13461,13 +13469,13 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13499,13 +13507,13 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -13537,13 +13545,13 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -13575,13 +13583,13 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -13610,13 +13618,13 @@
         <v>731</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13645,13 +13653,13 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -13680,13 +13688,13 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -13715,13 +13723,13 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -13729,7 +13737,7 @@
         <v>745</v>
       </c>
       <c r="B77" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C77" t="s">
         <v>733</v>
@@ -13750,13 +13758,13 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/542/542_series.xlsx
+++ b/INTLINE/data/542/542_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\542\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\542\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B5ED9-C175-44BC-AD2D-CE73AC90857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B6FE6-6CFF-4F08-9B3F-E99CC4F6493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1124">
   <si>
     <t>Short Label</t>
   </si>
@@ -3548,6 +3548,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross domestic product (current prices, won)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross national income (current prices, won)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//Main Indicators of National Accounts//Main Annual Indicators//National income//Gross national disposable income (current prices)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Agriculture, forestry and fishing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3573,6 +3585,46 @@
   </si>
   <si>
     <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Transportation and storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Net factor income from the rest of the world</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Gross fixed capital formation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Changes in inventories and acquisitions less disposals of valuables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Private</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Government</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Exports of goods and services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//(less) Imports of goods and services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Statistical discrepancy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Compensation of employees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Accounts//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Consumption of fixed capital</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4808,66 +4860,6 @@
   <si>
     <t>Recreationandculture</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Mining and quarrying</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Manufacturing</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Electricity, gas and water supply</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Construction</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Wholesale and retail trade, accommodation and food services</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Services//Transportation and storage</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross domestic product (current prices, won)</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Compensation of employees</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//Consolidated Accounts for the Nation//Gross Domestic Product and Expenditure//Gross Domestic Product and Expenditure (current prices, annual)//Gross domestic product//Consumption of fixed capital</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Gross fixed capital formation</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Private</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Final consumption expenditure//Government</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Gross capital formation//Changes in inventories and acquisitions less disposals of valuables</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Exports of goods and services</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//(less) Imports of goods and services</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//Expenditures on Gross Domestic Product//Expenditures on GDP (not seasonally adjusted, current prices, quarterly &amp; annual)//Statistical discrepancy</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//GDP and GDP Deflator by Economic Activities and Expenditures//GDP and GNI by Economic Activities//GDP and GNI by Economic Activities (not seasonally adjusted, current prices, quarterly &amp; annual)//Net factor income from the rest of the world</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross national income (current prices, won)</t>
-  </si>
-  <si>
-    <t>National Accounts//National Income and Product//Main Indicators of National Accounts//National Income and Product//Main Annual Indicators//National income//Gross national disposable income (current prices)</t>
   </si>
 </sst>
 </file>
@@ -5258,11 +5250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5381,7 +5373,7 @@
         <v>751</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1111</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5416,7 +5408,7 @@
         <v>752</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1112</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5451,7 +5443,7 @@
         <v>753</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1113</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5486,7 +5478,7 @@
         <v>754</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1114</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5521,7 +5513,7 @@
         <v>755</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1115</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5556,7 +5548,7 @@
         <v>756</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1116</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5591,7 +5583,7 @@
         <v>757</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1117</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5626,7 +5618,7 @@
         <v>758</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1118</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5661,7 +5653,7 @@
         <v>761</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1119</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5696,7 +5688,7 @@
         <v>762</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1120</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5731,7 +5723,7 @@
         <v>767</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1121</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5766,7 +5758,7 @@
         <v>765</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1122</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5801,7 +5793,7 @@
         <v>766</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>1123</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5836,7 +5828,7 @@
         <v>768</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>1124</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5871,7 +5863,7 @@
         <v>769</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>1125</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5906,7 +5898,7 @@
         <v>770</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>1126</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5941,7 +5933,7 @@
         <v>771</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>1127</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5976,7 +5968,7 @@
         <v>764</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1128</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6011,7 +6003,7 @@
         <v>759</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>1129</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6046,7 +6038,7 @@
         <v>760</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>1130</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -6121,10 +6113,10 @@
         <v>763</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6161,10 +6153,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="B3" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -6182,22 +6174,22 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6205,7 +6197,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6223,22 +6215,22 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6246,7 +6238,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -6267,27 +6259,27 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="B6" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6308,19 +6300,19 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6349,19 +6341,19 @@
         <v>106</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6390,19 +6382,19 @@
         <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6410,7 +6402,7 @@
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -6431,13 +6423,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6466,13 +6458,13 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6501,13 +6493,13 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6536,13 +6528,13 @@
         <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6571,13 +6563,13 @@
         <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6606,13 +6598,13 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6641,13 +6633,13 @@
         <v>17</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6676,13 +6668,13 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -6711,13 +6703,13 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -6746,13 +6738,13 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -6781,13 +6773,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>792</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -6816,13 +6808,13 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6851,13 +6843,13 @@
         <v>17</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6886,13 +6878,13 @@
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -6921,13 +6913,13 @@
         <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6956,13 +6948,13 @@
         <v>17</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6991,13 +6983,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7026,13 +7018,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -7061,13 +7053,13 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -7096,13 +7088,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -7131,13 +7123,13 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7166,13 +7158,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -7201,13 +7193,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -7236,13 +7228,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -7271,13 +7263,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -7306,13 +7298,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -7341,13 +7333,13 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -7376,13 +7368,13 @@
         <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -7411,13 +7403,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -7446,13 +7438,13 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -7481,13 +7473,13 @@
         <v>17</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -7516,13 +7508,13 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -7551,13 +7543,13 @@
         <v>17</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -7586,13 +7578,13 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -7621,13 +7613,13 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -7656,13 +7648,13 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -7691,13 +7683,13 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -7726,13 +7718,13 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -7761,13 +7753,13 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -7796,13 +7788,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -7831,13 +7823,13 @@
         <v>17</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -7866,13 +7858,13 @@
         <v>17</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -7901,13 +7893,13 @@
         <v>17</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -7936,13 +7928,13 @@
         <v>17</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -7971,13 +7963,13 @@
         <v>17</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -8006,13 +7998,13 @@
         <v>17</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -8041,13 +8033,13 @@
         <v>17</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -8076,13 +8068,13 @@
         <v>17</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -8111,13 +8103,13 @@
         <v>17</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -8146,13 +8138,13 @@
         <v>17</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -8181,13 +8173,13 @@
         <v>17</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -8216,13 +8208,13 @@
         <v>17</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -8251,13 +8243,13 @@
         <v>17</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -8286,13 +8278,13 @@
         <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -8321,13 +8313,13 @@
         <v>17</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -8356,13 +8348,13 @@
         <v>17</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -8391,13 +8383,13 @@
         <v>17</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -8426,13 +8418,13 @@
         <v>17</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -8461,13 +8453,13 @@
         <v>17</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -8496,13 +8488,13 @@
         <v>17</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -8531,13 +8523,13 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -8566,13 +8558,13 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -8601,18 +8593,18 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
@@ -8636,13 +8628,13 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -8671,13 +8663,13 @@
         <v>17</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -8706,13 +8698,13 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -8741,13 +8733,13 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -8776,13 +8768,13 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -8811,13 +8803,13 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -8846,13 +8838,13 @@
         <v>17</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -8881,13 +8873,13 @@
         <v>17</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -8916,13 +8908,13 @@
         <v>17</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -8951,13 +8943,13 @@
         <v>17</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -8986,13 +8978,13 @@
         <v>17</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9021,13 +9013,13 @@
         <v>17</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -9056,13 +9048,13 @@
         <v>17</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -9091,13 +9083,13 @@
         <v>17</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -9126,13 +9118,13 @@
         <v>17</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -9161,18 +9153,18 @@
         <v>17</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="B88" t="s">
         <v>355</v>
@@ -9196,13 +9188,13 @@
         <v>17</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -9231,13 +9223,13 @@
         <v>17</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -9266,13 +9258,13 @@
         <v>17</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -9301,13 +9293,13 @@
         <v>17</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -9336,13 +9328,13 @@
         <v>17</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -9371,13 +9363,13 @@
         <v>17</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -9406,13 +9398,13 @@
         <v>17</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -9441,13 +9433,13 @@
         <v>17</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -9476,13 +9468,13 @@
         <v>17</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -9511,13 +9503,13 @@
         <v>17</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -9546,13 +9538,13 @@
         <v>17</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -9581,13 +9573,13 @@
         <v>17</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -9616,13 +9608,13 @@
         <v>17</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -9651,13 +9643,13 @@
         <v>17</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -9686,13 +9678,13 @@
         <v>17</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -9721,18 +9713,18 @@
         <v>17</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="B104" t="s">
         <v>402</v>
@@ -9756,13 +9748,13 @@
         <v>17</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -9791,13 +9783,13 @@
         <v>17</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -9826,13 +9818,13 @@
         <v>17</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -9861,13 +9853,13 @@
         <v>17</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -9896,13 +9888,13 @@
         <v>17</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -9931,13 +9923,13 @@
         <v>17</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -9966,13 +9958,13 @@
         <v>17</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -10001,13 +9993,13 @@
         <v>17</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -10036,13 +10028,13 @@
         <v>17</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -10071,13 +10063,13 @@
         <v>17</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -10106,13 +10098,13 @@
         <v>17</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -10141,13 +10133,13 @@
         <v>17</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -10176,13 +10168,13 @@
         <v>17</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -10211,18 +10203,18 @@
         <v>17</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
       <c r="B118" t="s">
         <v>355</v>
@@ -10246,13 +10238,13 @@
         <v>17</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -10281,13 +10273,13 @@
         <v>17</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -10316,13 +10308,13 @@
         <v>17</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -10351,13 +10343,13 @@
         <v>17</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -10386,13 +10378,13 @@
         <v>17</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -10421,13 +10413,13 @@
         <v>17</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>751</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -10456,13 +10448,13 @@
         <v>17</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>752</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -10491,13 +10483,13 @@
         <v>17</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>753</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -10526,13 +10518,13 @@
         <v>17</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>754</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -10561,13 +10553,13 @@
         <v>17</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -10596,13 +10588,13 @@
         <v>17</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>756</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -10631,13 +10623,13 @@
         <v>17</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>757</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -10666,13 +10658,13 @@
         <v>17</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -10701,13 +10693,13 @@
         <v>17</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -10736,13 +10728,13 @@
         <v>17</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -10771,13 +10763,13 @@
         <v>17</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -10806,13 +10798,13 @@
         <v>17</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -10841,13 +10833,13 @@
         <v>17</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -10876,13 +10868,13 @@
         <v>17</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -10911,13 +10903,13 @@
         <v>17</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -10946,13 +10938,13 @@
         <v>17</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -10965,8 +10957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
@@ -11061,7 +11053,7 @@
         <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="C3" t="s">
         <v>492</v>
@@ -11085,13 +11077,13 @@
         <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11123,13 +11115,13 @@
         <v>106</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,7 +11129,7 @@
         <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="C5" t="s">
         <v>500</v>
@@ -11161,13 +11153,13 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,7 +11167,7 @@
         <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
       <c r="C6" t="s">
         <v>492</v>
@@ -11199,13 +11191,13 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11213,7 +11205,7 @@
         <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="C7" t="s">
         <v>505</v>
@@ -11231,13 +11223,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
       <c r="L7"/>
     </row>
@@ -11267,10 +11259,10 @@
         <v>508</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="L8"/>
     </row>
@@ -11300,10 +11292,10 @@
         <v>508</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
       <c r="L9"/>
     </row>
@@ -11333,10 +11325,10 @@
         <v>508</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="L10"/>
     </row>
@@ -11366,10 +11358,10 @@
         <v>508</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="L11"/>
     </row>
@@ -11399,10 +11391,10 @@
         <v>508</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="L12"/>
     </row>
@@ -11432,10 +11424,10 @@
         <v>508</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="L13"/>
     </row>
@@ -11465,10 +11457,10 @@
         <v>508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
       <c r="L14"/>
     </row>
@@ -11498,10 +11490,10 @@
         <v>508</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="L15"/>
     </row>
@@ -11531,10 +11523,10 @@
         <v>508</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
       <c r="L16"/>
     </row>
@@ -11564,10 +11556,10 @@
         <v>508</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="L17"/>
     </row>
@@ -11597,10 +11589,10 @@
         <v>508</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="L18"/>
     </row>
@@ -11630,10 +11622,10 @@
         <v>508</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="L19"/>
     </row>
@@ -11663,10 +11655,10 @@
         <v>508</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="L20"/>
     </row>
@@ -11696,10 +11688,10 @@
         <v>508</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="L21"/>
     </row>
@@ -11729,10 +11721,10 @@
         <v>508</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="L22"/>
     </row>
@@ -11762,10 +11754,10 @@
         <v>508</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
       <c r="L23"/>
     </row>
@@ -11795,10 +11787,10 @@
         <v>508</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="L24"/>
     </row>
@@ -11831,13 +11823,13 @@
         <v>106</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -11866,7 +11858,7 @@
         <v>570</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -11876,7 +11868,7 @@
         <v>573</v>
       </c>
       <c r="B27" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="C27" t="s">
         <v>571</v>
@@ -11897,13 +11889,13 @@
         <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -11932,13 +11924,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -11967,13 +11959,13 @@
         <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -12002,18 +11994,18 @@
         <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="B31" t="s">
         <v>584</v>
@@ -12037,18 +12029,18 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="B32" t="s">
         <v>587</v>
@@ -12072,13 +12064,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -12107,13 +12099,13 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -12142,13 +12134,13 @@
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -12177,13 +12169,13 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12215,13 +12207,13 @@
         <v>106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12253,13 +12245,13 @@
         <v>106</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12291,13 +12283,13 @@
         <v>106</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -12329,13 +12321,13 @@
         <v>106</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -12367,13 +12359,13 @@
         <v>106</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -12405,13 +12397,13 @@
         <v>106</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12443,13 +12435,13 @@
         <v>106</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12481,13 +12473,13 @@
         <v>106</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12519,13 +12511,13 @@
         <v>106</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12557,13 +12549,13 @@
         <v>106</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -12595,13 +12587,13 @@
         <v>106</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -12633,13 +12625,13 @@
         <v>106</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12671,13 +12663,13 @@
         <v>106</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -12709,13 +12701,13 @@
         <v>106</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -12747,13 +12739,13 @@
         <v>106</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,13 +12777,13 @@
         <v>106</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -12823,13 +12815,13 @@
         <v>106</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -12861,18 +12853,18 @@
         <v>106</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="B54" t="s">
         <v>674</v>
@@ -12899,13 +12891,13 @@
         <v>106</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -12937,13 +12929,13 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -12975,13 +12967,13 @@
         <v>106</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13013,13 +13005,13 @@
         <v>106</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13051,13 +13043,13 @@
         <v>106</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13089,13 +13081,13 @@
         <v>106</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13127,18 +13119,18 @@
         <v>106</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="B61" t="s">
         <v>695</v>
@@ -13165,13 +13157,13 @@
         <v>106</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -13203,13 +13195,13 @@
         <v>106</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -13241,13 +13233,13 @@
         <v>106</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -13279,13 +13271,13 @@
         <v>106</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13317,13 +13309,13 @@
         <v>106</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -13355,13 +13347,13 @@
         <v>106</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -13393,18 +13385,18 @@
         <v>106</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
       <c r="B68" t="s">
         <v>709</v>
@@ -13431,13 +13423,13 @@
         <v>106</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -13469,13 +13461,13 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13507,13 +13499,13 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -13545,13 +13537,13 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -13583,13 +13575,13 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -13618,13 +13610,13 @@
         <v>731</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13653,13 +13645,13 @@
         <v>17</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -13688,13 +13680,13 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -13723,13 +13715,13 @@
         <v>17</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -13737,7 +13729,7 @@
         <v>745</v>
       </c>
       <c r="B77" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="C77" t="s">
         <v>733</v>
@@ -13758,13 +13750,13 @@
         <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/542/542_series.xlsx
+++ b/INTLINE/data/542/542_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\542\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\542\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B6FE6-6CFF-4F08-9B3F-E99CC4F6493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF43224-9D38-47F7-9C26-10AEF8849248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="5160" windowWidth="23880" windowHeight="9870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">M!$A$1:$L$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Q!$A$1:$L$138</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4241,38 +4249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BankNotesandCoinsinCirculation(EndOf)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankNotesandCoinsinCirculation(Averages)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1(NarrowMoney,EndOf)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1(NarrowMoney,Average)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2(BroadMoney,EndOf)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2(BroadMoney,Average)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lf(EndOf)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lf(Average)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Interest Rates and Bond Yields, Interest Rates on Deposits of Commercial and Specialized Banks, Newly Extended, Time Deposits, 6 Months to less than 1 Year (Period Average) - South Korea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4297,18 +4273,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YieldsofCorporateBonds:O.T.C(3-year,AA-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YieldsonCD(91-day)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UncollateralizedCallRates(Overnight)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Prices//Import Price Indexes//IPI(Group by use)//All items//Raw materials//Won Basis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4329,10 +4293,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TotalDepositsofCBs&amp;SBs.(Averages)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KORMB0008.M</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4341,10 +4301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TimeDeposits(6Months~lessThan1Year)2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Surveys and Cyclical Indicators, Household Income and Expenditure Survey, Urban, Real Income, Salary and Wage Earners' Households (2015), NSA - South Korea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4574,10 +4530,6 @@
   </si>
   <si>
     <t>ConsumergoodsWonBasis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea,RepublicOf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4859,6 +4811,55 @@
   </si>
   <si>
     <t>Recreationandculture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankNotesandCoinsinCirculation(endof)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>averages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2(Average)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidityAggregatesofFinancialInstitutions:LfByType(Endof)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidityAggregatesofFinancialInstitutions:LfByType(Average)</t>
+  </si>
+  <si>
+    <t>TotalDeposits</t>
+  </si>
+  <si>
+    <t>YieldsofCorporateBonds:O.T.C(3-year,AA-)</t>
+  </si>
+  <si>
+    <t>YieldsonCD(91-day)</t>
+  </si>
+  <si>
+    <t>UncollateralizedCallRates(Overnight)</t>
+  </si>
+  <si>
+    <t>TimeDeposits(6Months~lessThan1Year)2)</t>
+  </si>
+  <si>
+    <t>Korea,RepublicOf</t>
+  </si>
+  <si>
+    <t>M2(EndOf)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1(EndOf)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1(Average)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6055,10 +6056,10 @@
   <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6113,10 +6114,10 @@
         <v>763</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6153,10 +6154,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="B3" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -6174,22 +6175,22 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6197,7 +6198,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6215,22 +6216,22 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6238,7 +6239,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -6259,27 +6260,27 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="B6" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6300,19 +6301,19 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6341,19 +6342,19 @@
         <v>106</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6382,19 +6383,19 @@
         <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -10958,10 +10959,10 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11053,7 +11054,7 @@
         <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C3" t="s">
         <v>492</v>
@@ -11077,13 +11078,13 @@
         <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11115,13 +11116,13 @@
         <v>106</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11129,7 +11130,7 @@
         <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C5" t="s">
         <v>500</v>
@@ -11153,13 +11154,13 @@
         <v>106</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11167,7 +11168,7 @@
         <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="C6" t="s">
         <v>492</v>
@@ -11191,13 +11192,13 @@
         <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11205,7 +11206,7 @@
         <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="C7" t="s">
         <v>505</v>
@@ -11223,13 +11224,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>1103</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>1117</v>
       </c>
       <c r="L7"/>
     </row>
@@ -11259,10 +11260,10 @@
         <v>508</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="L8"/>
     </row>
@@ -11292,10 +11293,10 @@
         <v>508</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="L9"/>
     </row>
@@ -11325,10 +11326,10 @@
         <v>508</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="L10"/>
     </row>
@@ -11358,10 +11359,10 @@
         <v>508</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="L11"/>
     </row>
@@ -11391,10 +11392,10 @@
         <v>508</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="L12"/>
     </row>
@@ -11424,10 +11425,10 @@
         <v>508</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="L13"/>
     </row>
@@ -11457,10 +11458,10 @@
         <v>508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="L14"/>
     </row>
@@ -11490,10 +11491,10 @@
         <v>508</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="L15"/>
     </row>
@@ -11523,10 +11524,10 @@
         <v>508</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="L16"/>
     </row>
@@ -11556,10 +11557,10 @@
         <v>508</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="L17"/>
     </row>
@@ -11589,10 +11590,10 @@
         <v>508</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="L18"/>
     </row>
@@ -11622,10 +11623,10 @@
         <v>508</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="L19"/>
     </row>
@@ -11655,10 +11656,10 @@
         <v>508</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="L20"/>
     </row>
@@ -11688,10 +11689,10 @@
         <v>508</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="L21"/>
     </row>
@@ -11721,10 +11722,10 @@
         <v>508</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="L22"/>
     </row>
@@ -11754,10 +11755,10 @@
         <v>508</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="L23"/>
     </row>
@@ -11787,10 +11788,10 @@
         <v>508</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="L24"/>
     </row>
@@ -11823,13 +11824,13 @@
         <v>106</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -11858,7 +11859,7 @@
         <v>570</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -11868,7 +11869,7 @@
         <v>573</v>
       </c>
       <c r="B27" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C27" t="s">
         <v>571</v>
@@ -11892,7 +11893,7 @@
         <v>965</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>966</v>
+        <v>1110</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>957</v>
@@ -11927,7 +11928,7 @@
         <v>965</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>967</v>
+        <v>1111</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>958</v>
@@ -11962,7 +11963,7 @@
         <v>965</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>968</v>
+        <v>1122</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>959</v>
@@ -11997,7 +11998,7 @@
         <v>965</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>969</v>
+        <v>1123</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>960</v>
@@ -12005,7 +12006,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B31" t="s">
         <v>584</v>
@@ -12032,7 +12033,7 @@
         <v>965</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>970</v>
+        <v>1121</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>961</v>
@@ -12040,7 +12041,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="B32" t="s">
         <v>587</v>
@@ -12067,7 +12068,7 @@
         <v>965</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>971</v>
+        <v>1112</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>962</v>
@@ -12102,7 +12103,7 @@
         <v>965</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>972</v>
+        <v>1113</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>963</v>
@@ -12137,7 +12138,7 @@
         <v>965</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>973</v>
+        <v>1114</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>964</v>
@@ -12172,10 +12173,10 @@
         <v>965</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>988</v>
+        <v>1115</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12207,13 +12208,13 @@
         <v>106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12245,13 +12246,13 @@
         <v>106</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12283,13 +12284,13 @@
         <v>106</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -12321,13 +12322,13 @@
         <v>106</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -12359,13 +12360,13 @@
         <v>106</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -12397,13 +12398,13 @@
         <v>106</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12435,13 +12436,13 @@
         <v>106</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12473,13 +12474,13 @@
         <v>106</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12511,13 +12512,13 @@
         <v>106</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -12549,13 +12550,13 @@
         <v>106</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -12587,13 +12588,13 @@
         <v>106</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -12625,13 +12626,13 @@
         <v>106</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12663,13 +12664,13 @@
         <v>106</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -12701,13 +12702,13 @@
         <v>106</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -12739,13 +12740,13 @@
         <v>106</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -12777,13 +12778,13 @@
         <v>106</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -12815,13 +12816,13 @@
         <v>106</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -12853,18 +12854,18 @@
         <v>106</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="B54" t="s">
         <v>674</v>
@@ -12891,13 +12892,13 @@
         <v>106</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -12929,13 +12930,13 @@
         <v>106</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -12967,13 +12968,13 @@
         <v>106</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13005,13 +13006,13 @@
         <v>106</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13043,13 +13044,13 @@
         <v>106</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13081,13 +13082,13 @@
         <v>106</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13119,18 +13120,18 @@
         <v>106</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="B61" t="s">
         <v>695</v>
@@ -13157,13 +13158,13 @@
         <v>106</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -13195,13 +13196,13 @@
         <v>106</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -13233,13 +13234,13 @@
         <v>106</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -13271,13 +13272,13 @@
         <v>106</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13309,13 +13310,13 @@
         <v>106</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -13347,13 +13348,13 @@
         <v>106</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -13385,18 +13386,18 @@
         <v>106</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="B68" t="s">
         <v>709</v>
@@ -13423,13 +13424,13 @@
         <v>106</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -13461,13 +13462,13 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13499,13 +13500,13 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -13537,13 +13538,13 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -13575,13 +13576,13 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -13613,10 +13614,10 @@
         <v>965</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>1050</v>
+        <v>1120</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13648,10 +13649,10 @@
         <v>965</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>980</v>
+        <v>1116</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -13683,10 +13684,10 @@
         <v>965</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>981</v>
+        <v>1117</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -13718,10 +13719,10 @@
         <v>965</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>982</v>
+        <v>1118</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -13729,7 +13730,7 @@
         <v>745</v>
       </c>
       <c r="B77" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C77" t="s">
         <v>733</v>
@@ -13753,10 +13754,10 @@
         <v>965</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>991</v>
+        <v>1119</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
